--- a/data/WXR/shuffle_order.xlsx
+++ b/data/WXR/shuffle_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,6 +1713,246 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>17</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>26</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>12</v>
+      </c>
+      <c r="W17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21</v>
+      </c>
+      <c r="K18" t="n">
+        <v>18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13</v>
+      </c>
+      <c r="W18" t="n">
+        <v>22</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>23</v>
+      </c>
+      <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
+        <v>26</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
